--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3193342.166310436</v>
+        <v>3191007.055108456</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8308422.421325871</v>
+        <v>8308422.42132587</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078156</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>8.61283466359653</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>77.27614072340543</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>58.4963068796234</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>323.9124240006611</v>
+        <v>82.78267808229599</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14.29880131109869</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>215.7572839139229</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>111.068325668461</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>14.42881909501704</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>12.61028049873698</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>106.1949878935057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>213.873210600095</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>10.63412424768206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>132.6315337216688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>167.3637267182086</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>113.541358075969</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>55.52079624060383</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>80.10107535865887</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>41.02686156550217</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4141,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>66.25628701154714</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>805.7846820932077</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>436.822165152796</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>78.5564665460455</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>78.5564665460455</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>71.61096579684202</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>59.94661956153496</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>59.94661956153496</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
         <v>2360.886721764997</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.989612394221</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1582.523854133141</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1192.384522157329</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>299.2648838844851</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.931248730034</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2548.223678696071</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.8338829770711</v>
+        <v>297.2899590611441</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>297.2899590611441</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>297.2899590611441</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1577.358941408211</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1577.358941408211</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1577.358941408211</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.240603912049</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1288.240603912049</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W4" t="n">
-        <v>998.8234338750884</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="X4" t="n">
-        <v>770.8338829770711</v>
+        <v>699.731003034914</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.8338829770711</v>
+        <v>478.9384238913839</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829028</v>
+        <v>909.6965460670931</v>
       </c>
       <c r="C5" t="n">
-        <v>732.1814761616938</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D5" t="n">
-        <v>373.9157775549434</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>373.9157775549434</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4571,10 +4571,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130042</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868962</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.96558289315</v>
+        <v>1296.296386131215</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844844</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159562</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751764</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.0678491612455</v>
+        <v>383.7931243196347</v>
       </c>
       <c r="C7" t="n">
-        <v>455.1316662333386</v>
+        <v>383.7931243196347</v>
       </c>
       <c r="D7" t="n">
-        <v>305.0150268210028</v>
+        <v>233.6764849072989</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>233.6764849072989</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4732,7 +4732,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.86271359008</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.86271359008</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W7" t="n">
-        <v>1244.445543553119</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="X7" t="n">
-        <v>1026.508893135015</v>
+        <v>565.4415891498744</v>
       </c>
       <c r="Y7" t="n">
-        <v>805.7163139914852</v>
+        <v>565.4415891498744</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2029.57251526313</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1660.609998322718</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.344299715968</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.57251526313</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>867.4865790926983</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2272.649715293768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1981.028999426865</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1691.953772771063</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1437.269284565176</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
@@ -5522,16 +5522,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2277.908814167929</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2058.30734919087</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1769.232122535068</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6446,22 +6446,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8982754122182</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>149.8982754122182</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>149.8982754122182</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,61 +6926,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>808.8888553856862</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>639.9526724577793</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>489.8360330454435</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>341.9229394630504</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159259</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7154,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1026.887310050512</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565599</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,19 +7725,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
         <v>235.5284942057738</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.9556134883069376</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>35.19601322587788</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9556134883059997</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019041</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>111.2104624337825</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3.532239727193229</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>129.6605885985418</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>13.66255928343602</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.89260457060013</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>25.7450400779617</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>65.31997266427237</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.62417772602069</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>99.26785128072171</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="16">
@@ -26320,40 +26320,40 @@
         <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309552</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744304</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744304</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744304</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744311</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
+        <v>8727.256391744295</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744348</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744344</v>
-      </c>
       <c r="N4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744306</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-624800.1443614997</v>
+        <v>-624800.1443614993</v>
       </c>
       <c r="C6" t="n">
-        <v>489951.6392144201</v>
+        <v>489951.6392144198</v>
       </c>
       <c r="D6" t="n">
-        <v>329936.1764664213</v>
+        <v>329936.1764664212</v>
       </c>
       <c r="E6" t="n">
-        <v>270991.0267057488</v>
+        <v>270956.2887803133</v>
       </c>
       <c r="F6" t="n">
-        <v>596403.4885131038</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="G6" t="n">
-        <v>596403.4885131038</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="H6" t="n">
-        <v>596403.488513104</v>
+        <v>596368.7505876683</v>
       </c>
       <c r="I6" t="n">
-        <v>596403.4885131035</v>
+        <v>596368.7505876686</v>
       </c>
       <c r="J6" t="n">
-        <v>428798.3107031215</v>
+        <v>428763.5727776858</v>
       </c>
       <c r="K6" t="n">
-        <v>596403.4885131042</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="L6" t="n">
-        <v>548109.5185049134</v>
+        <v>548074.7805794777</v>
       </c>
       <c r="M6" t="n">
-        <v>511348.4605775926</v>
+        <v>511313.7226521565</v>
       </c>
       <c r="N6" t="n">
-        <v>596403.4885131043</v>
+        <v>596368.7505876685</v>
       </c>
       <c r="O6" t="n">
-        <v>596403.4885131042</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="P6" t="n">
-        <v>596403.488513104</v>
+        <v>596368.7505876687</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.784417372699</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>57.09707800887394</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>69.15782192316374</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>43.06126553995022</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>41.36046777034647</v>
+        <v>282.4902136887115</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>131.1222467118326</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>9.95237147511429</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>270.8620444038007</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>189.4891510446031</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>213.0993748903002</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28564,70 +28564,70 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32084,7 +32084,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197787</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,22 +32786,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>568.8264345569168</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33497,25 +33497,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,22 +34445,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
-        <v>452.3405299254388</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>187.5431097317917</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>14.258232024328</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>187.5431097317909</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35027,13 +35027,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753343</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>430.2720547770426</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,25 +37145,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,22 +38093,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
-        <v>310.2064960034205</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
